--- a/documents/users_list.xlsx
+++ b/documents/users_list.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,82 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3362012034</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>t47874</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>324304236</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ABDIYEVA NARGIZA SHUXRATOVNA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>["Moliyaviy tahlil va audit"]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>["Dotsent"]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>+998 90 345 31 32</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3242011053</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>m75535</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>324304236</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ABDUG‘ANIYEV UCHQUN HABIBULLA O‘G‘LI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>["Soliqlar va soliqqa tortish", "Moliyaviy tahlil va audit"]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>["Assistent", "Assistent"]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>+998901670970</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
